--- a/pred_ohlcv/54_21/2020-01-24 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 CON ohlcv.xlsx
@@ -11468,7 +11468,7 @@
         <v>9416598.725500001</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>9314802.455500001</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>9168796.807300001</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>9014998.297300002</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>9106579.583300002</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>9215912.423300002</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>9116790.653300002</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>9055541.500700003</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>8137146.759000002</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>8194416.869000003</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>8786704.601200003</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>8970513.861200001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>11119189.3472</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>11057907.7391</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>10881691.2591</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>10429656.2588</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>11157834.05781508</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>10651091.27871508</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>10468050.68871508</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>10450468.08431508</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>10464485.30431508</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>10420431.18431508</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>10236516.19531508</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>10273761.70531508</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>10325103.58471508</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>10331961.77393312</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>10501342.59043312</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>10313674.91033312</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>11221260.64593312</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>11488082.09913312</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>11661150.97913312</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>11711412.47913312</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>11685380.49913312</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>11334593.48013312</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>11335373.48013312</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>10571779.90113312</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>9728063.569133123</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>8104915.879133124</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-6248308.26553061</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-6480010.870083938</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-8169414.511183938</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-8144383.761183938</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 CON ohlcv.xlsx
@@ -11468,7 +11468,7 @@
         <v>9416598.725500001</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>9314802.455500001</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>9168796.807300001</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>9014998.297300002</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>9106579.583300002</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>9215912.423300002</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>9116790.653300002</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>9055541.500700003</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>8137146.759000002</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>8194416.869000003</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>8786704.601200003</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>8970513.861200001</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>11119189.3472</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>11057907.7391</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>11157834.05781508</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>10651091.27871508</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>10348345.08431508</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>10450468.08431508</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>10464485.30431508</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>10420431.18431508</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>10236516.19531508</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>10273761.70531508</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>10325103.58471508</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>10331961.77393312</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>10387964.70033312</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>10313674.91033312</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>10230572.82033312</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>10106474.31553312</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>10041581.41553312</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>10041581.41553312</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>11253300.00593312</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>11221260.64593312</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>11488082.09913312</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>11661150.97913312</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>11711412.47913312</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>11685380.49913312</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>11334593.48013312</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>11335373.48013312</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>10571779.90113312</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>9728063.569133123</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>8104915.879133124</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>5977222.996533122</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>4931837.819633121</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>4866149.121633121</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>4950907.043133121</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>4119233.634433121</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-6248308.26553061</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-6663797.38848394</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-8306887.80018394</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-8191746.35018394</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-8227790.630183939</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-8191746.350183939</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-8134676.240183938</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-8174725.440183938</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-8261527.671183938</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-8169414.511183938</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-8144383.761183938</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-8209463.711183938</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
